--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/4.TraBH/TBH221222_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/4.TraBH/TBH221222_AnhTuanNB.xlsx
@@ -129,9 +129,6 @@
     <t>WSP21060008S0356/ 0032000A50</t>
   </si>
   <si>
-    <t>ID mới: WP21120135S01121 / 0032002397</t>
-  </si>
-  <si>
     <t>Thiết bị không chốt GPS</t>
   </si>
   <si>
@@ -163,6 +160,10 @@
   </si>
   <si>
     <t>Xử lý lại phần cứng</t>
+  </si>
+  <si>
+    <t>ID mới: WP22050219S01580 
+/ 0032003FE5</t>
   </si>
 </sst>
 </file>
@@ -786,6 +787,99 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -799,99 +893,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1253,8 +1254,8 @@
   </sheetPr>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1285,108 +1286,108 @@
       <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="58" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="60"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="61" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="63"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="61" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="63"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="53"/>
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="64" t="s">
+      <c r="A5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="66"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
     </row>
     <row r="6" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="57"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="74"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="69"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="50"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="67"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="52"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="69"/>
       <c r="M9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1406,14 +1407,14 @@
     </row>
     <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="71"/>
       <c r="L11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1455,7 +1456,7 @@
       <c r="B13" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="45" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="24" t="s">
@@ -1464,14 +1465,14 @@
       <c r="E13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="78"/>
+      <c r="F13" s="46"/>
       <c r="G13" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="76"/>
+      <c r="H13" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="44"/>
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1481,7 +1482,7 @@
       <c r="B14" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="45" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="24" t="s">
@@ -1490,14 +1491,14 @@
       <c r="E14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="78"/>
+      <c r="F14" s="46"/>
       <c r="G14" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="76"/>
+        <v>45</v>
+      </c>
+      <c r="I14" s="44"/>
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1507,7 +1508,7 @@
       <c r="B15" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="77" t="s">
+      <c r="C15" s="45" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="24" t="s">
@@ -1516,14 +1517,14 @@
       <c r="E15" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="78"/>
+      <c r="F15" s="46"/>
       <c r="G15" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="76"/>
+        <v>36</v>
+      </c>
+      <c r="H15" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="44"/>
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1533,7 +1534,7 @@
       <c r="B16" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="45" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="24" t="s">
@@ -1543,15 +1544,15 @@
         <v>23</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="79" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="76"/>
+        <v>37</v>
+      </c>
+      <c r="H16" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="44"/>
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1559,21 +1560,21 @@
         <v>5</v>
       </c>
       <c r="B17" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="H17" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="76"/>
+      <c r="I17" s="44"/>
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1597,26 +1598,26 @@
       </c>
       <c r="E19" s="35"/>
       <c r="F19" s="36"/>
-      <c r="G19" s="44" t="s">
+      <c r="G19" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
     </row>
     <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="48" t="s">
+      <c r="G20" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
     </row>
     <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
@@ -1661,47 +1662,47 @@
       <c r="I24" s="16"/>
     </row>
     <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
       <c r="F25" s="38"/>
-      <c r="G25" s="47" t="s">
+      <c r="G25" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
     </row>
     <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
     </row>
     <row r="67" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A2:E5"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="B7:I7"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A2:E5"/>
   </mergeCells>
   <pageMargins left="0.6" right="0.6" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="23" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/4.TraBH/TBH221222_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/4.TraBH/TBH221222_AnhTuanNB.xlsx
@@ -799,6 +799,48 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -852,48 +894,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1255,7 +1255,7 @@
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1286,108 +1286,108 @@
       <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="48" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="51" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="67"/>
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="51" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="53"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="54" t="s">
+      <c r="A5" s="77"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="70"/>
     </row>
     <row r="6" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="74"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="61"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="56"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="67"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="69"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="56"/>
       <c r="M9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1407,14 +1407,14 @@
     </row>
     <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="71"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="58"/>
       <c r="L11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1598,26 +1598,26 @@
       </c>
       <c r="E19" s="35"/>
       <c r="F19" s="36"/>
-      <c r="G19" s="75" t="s">
+      <c r="G19" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
     </row>
     <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="79" t="s">
+      <c r="G20" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
     </row>
     <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
@@ -1662,44 +1662,44 @@
       <c r="I24" s="16"/>
     </row>
     <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="78" t="s">
+      <c r="A25" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="78"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
       <c r="F25" s="38"/>
-      <c r="G25" s="78" t="s">
+      <c r="G25" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
     </row>
     <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
     </row>
     <row r="67" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A2:E5"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="B7:I7"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A2:E5"/>
   </mergeCells>
   <pageMargins left="0.6" right="0.6" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="23" orientation="landscape" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/4.TraBH/TBH221222_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/4.TraBH/TBH221222_AnhTuanNB.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$I$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$I$72</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="63">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>Người đại diện: Đại lý Anh Tuấn Ninh Bình</t>
-  </si>
-  <si>
-    <t>Hà Nội, ngày 22 tháng 12 năm 2022</t>
   </si>
   <si>
     <t>Nguyễn Minh Tùng</t>
@@ -164,6 +161,58 @@
   <si>
     <t>ID mới: WP22050219S01580 
 / 0032003FE5</t>
+  </si>
+  <si>
+    <t>Hà Nội, ngày 29 tháng 12 năm 2022</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>SVT-CW-21-05015319</t>
+  </si>
+  <si>
+    <t>SVT-CW-21-05016732</t>
+  </si>
+  <si>
+    <t>Lỗi tiêu cự</t>
+  </si>
+  <si>
+    <t>WM21051100S0294
+00BD000B52</t>
+  </si>
+  <si>
+    <t>Xử lý lại màn LCD</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Sim lỗi</t>
+  </si>
+  <si>
+    <t>TG102LE-4G</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GSM</t>
+  </si>
+  <si>
+    <t>Update phần mềm</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng, Update phần mềm</t>
+  </si>
+  <si>
+    <t>Dây nguồn</t>
+  </si>
+  <si>
+    <t>SL: 4</t>
+  </si>
+  <si>
+    <t>Dây nguồn bình thường</t>
+  </si>
+  <si>
+    <t>Test lạ dây nguồn</t>
   </si>
 </sst>
 </file>
@@ -684,7 +733,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -799,6 +848,15 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -894,6 +952,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -924,7 +985,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>633305</xdr:colOff>
+      <xdr:colOff>277153</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>165653</xdr:rowOff>
     </xdr:to>
@@ -1252,16 +1313,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
@@ -1286,108 +1347,108 @@
       <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="64"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="65" t="s">
+      <c r="A3" s="77"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="70"/>
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="65" t="s">
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="67"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="70"/>
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="68" t="s">
+      <c r="A5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="70"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
     </row>
     <row r="6" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="61"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="56"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="59"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="57"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="56"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="59"/>
       <c r="M9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1407,14 +1468,14 @@
     </row>
     <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="58"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="61"/>
       <c r="L11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1454,13 +1515,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="D13" s="24" t="s">
         <v>30</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>31</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>22</v>
@@ -1470,7 +1531,7 @@
         <v>24</v>
       </c>
       <c r="H13" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="44"/>
       <c r="J13" s="11"/>
@@ -1480,23 +1541,23 @@
         <v>2</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="24" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="46"/>
       <c r="G14" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" s="44"/>
       <c r="J14" s="11"/>
@@ -1506,23 +1567,23 @@
         <v>3</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="24" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="46"/>
       <c r="G15" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" s="47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I15" s="44"/>
       <c r="J15" s="11"/>
@@ -1532,25 +1593,25 @@
         <v>4</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="24" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I16" s="44"/>
       <c r="J16" s="11"/>
@@ -1560,128 +1621,1172 @@
         <v>5</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
       <c r="F17" s="46"/>
       <c r="G17" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H17" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I17" s="44"/>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="32"/>
+    <row r="18" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23">
+        <v>6</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="46"/>
+      <c r="G18" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="44"/>
       <c r="J18" s="11"/>
     </row>
-    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35" t="s">
+    <row r="19" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23">
+        <v>7</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="46"/>
+      <c r="G19" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="44"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23">
+        <v>8</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="46"/>
+      <c r="G20" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="44"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23">
+        <v>9</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="48">
+        <v>861881051077791</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="44"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23">
+        <v>10</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="48">
+        <v>862205051220194</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="44"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23">
+        <v>11</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="48">
+        <v>862205051188821</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="44"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23">
+        <v>12</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="48">
+        <v>862205051188490</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="44"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23">
+        <v>13</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="48">
+        <v>861881051088665</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="83"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="23">
+        <v>14</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="48">
+        <v>861881051082379</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="49"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="83"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="23">
+        <v>15</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="48">
+        <v>861881054167029</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="49"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="83"/>
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="23">
+        <v>16</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="48">
+        <v>861881051089937</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="50"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28" s="44"/>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="23">
+        <v>17</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="48">
+        <v>861881051078351</v>
+      </c>
+      <c r="D29" s="50"/>
+      <c r="E29" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="50"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="44"/>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23">
         <v>18</v>
       </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="48" t="s">
+      <c r="B30" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="48">
+        <v>862205051161414</v>
+      </c>
+      <c r="D30" s="50"/>
+      <c r="E30" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="50"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" s="44"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23">
+        <v>19</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="48">
+        <v>861881054164034</v>
+      </c>
+      <c r="D31" s="50"/>
+      <c r="E31" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="24"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" s="44"/>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="23">
+        <v>20</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="48">
+        <v>861881051086834</v>
+      </c>
+      <c r="D32" s="50"/>
+      <c r="E32" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" s="44"/>
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23">
+        <v>21</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="48">
+        <v>862205051165993</v>
+      </c>
+      <c r="D33" s="50"/>
+      <c r="E33" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="44"/>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="23">
+        <v>22</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="48">
+        <v>862205051216846</v>
+      </c>
+      <c r="D34" s="50"/>
+      <c r="E34" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I34" s="44"/>
+      <c r="J34" s="11"/>
+    </row>
+    <row r="35" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="23">
+        <v>23</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="48">
+        <v>862205051178665</v>
+      </c>
+      <c r="D35" s="50"/>
+      <c r="E35" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" s="44"/>
+      <c r="J35" s="11"/>
+    </row>
+    <row r="36" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="23">
+        <v>24</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="48">
+        <v>861881051080134</v>
+      </c>
+      <c r="D36" s="50"/>
+      <c r="E36" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" s="44"/>
+      <c r="J36" s="11"/>
+    </row>
+    <row r="37" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="23">
+        <v>25</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="48">
+        <v>861881051088954</v>
+      </c>
+      <c r="D37" s="50"/>
+      <c r="E37" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="23"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" s="44"/>
+      <c r="J37" s="11"/>
+    </row>
+    <row r="38" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="23">
         <v>26</v>
       </c>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-    </row>
-    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
+      <c r="B38" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="48">
+        <v>861881051083468</v>
+      </c>
+      <c r="D38" s="50"/>
+      <c r="E38" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="23"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I38" s="44"/>
+      <c r="J38" s="11"/>
+    </row>
+    <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="23">
+        <v>27</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="48">
+        <v>861881051084292</v>
+      </c>
+      <c r="D39" s="50"/>
+      <c r="E39" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="23"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39" s="44"/>
+      <c r="J39" s="11"/>
+    </row>
+    <row r="40" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="23">
+        <v>28</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="48">
+        <v>862205051196857</v>
+      </c>
+      <c r="D40" s="50"/>
+      <c r="E40" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="23"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I40" s="44"/>
+      <c r="J40" s="11"/>
+    </row>
+    <row r="41" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="23">
+        <v>29</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="48">
+        <v>861881051072313</v>
+      </c>
+      <c r="D41" s="50"/>
+      <c r="E41" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="23"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I41" s="44"/>
+      <c r="J41" s="11"/>
+    </row>
+    <row r="42" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="23">
+        <v>30</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="48">
+        <v>861881051082957</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" s="25"/>
+      <c r="H42" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I42" s="44"/>
+      <c r="J42" s="11"/>
+    </row>
+    <row r="43" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="23">
+        <v>31</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="48">
+        <v>861881051086610</v>
+      </c>
+      <c r="D43" s="50"/>
+      <c r="E43" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I43" s="44"/>
+      <c r="J43" s="11"/>
+    </row>
+    <row r="44" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="23">
+        <v>32</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="48">
+        <v>861881051082627</v>
+      </c>
+      <c r="D44" s="50"/>
+      <c r="E44" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I44" s="44"/>
+      <c r="J44" s="11"/>
+    </row>
+    <row r="45" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="23">
+        <v>33</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="48">
+        <v>862205051180125</v>
+      </c>
+      <c r="D45" s="50"/>
+      <c r="E45" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I45" s="44"/>
+      <c r="J45" s="11"/>
+    </row>
+    <row r="46" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="23">
+        <v>34</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="48">
+        <v>861881051083211</v>
+      </c>
+      <c r="D46" s="50"/>
+      <c r="E46" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I46" s="44"/>
+      <c r="J46" s="11"/>
+    </row>
+    <row r="47" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23">
+        <v>35</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="48">
+        <v>861881051090406</v>
+      </c>
+      <c r="D47" s="50"/>
+      <c r="E47" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I47" s="44"/>
+      <c r="J47" s="11"/>
+    </row>
+    <row r="48" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="23">
+        <v>36</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="48">
+        <v>861881051071968</v>
+      </c>
+      <c r="D48" s="50"/>
+      <c r="E48" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I48" s="44"/>
+      <c r="J48" s="11"/>
+    </row>
+    <row r="49" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="23">
+        <v>37</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="48">
+        <v>862205051171157</v>
+      </c>
+      <c r="D49" s="50"/>
+      <c r="E49" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I49" s="44"/>
+      <c r="J49" s="11"/>
+    </row>
+    <row r="50" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="23">
+        <v>38</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="48">
+        <v>862205051172262</v>
+      </c>
+      <c r="D50" s="50"/>
+      <c r="E50" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I50" s="44"/>
+      <c r="J50" s="11"/>
+    </row>
+    <row r="51" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="23">
+        <v>39</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="48">
+        <v>862205051171322</v>
+      </c>
+      <c r="D51" s="50"/>
+      <c r="E51" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I51" s="44"/>
+      <c r="J51" s="11"/>
+    </row>
+    <row r="52" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="23">
+        <v>40</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="48">
+        <v>862205051236588</v>
+      </c>
+      <c r="D52" s="50"/>
+      <c r="E52" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I52" s="44"/>
+      <c r="J52" s="11"/>
+    </row>
+    <row r="53" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="23">
+        <v>41</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="48">
+        <v>862205051172163</v>
+      </c>
+      <c r="D53" s="50"/>
+      <c r="E53" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H53" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I53" s="44"/>
+      <c r="J53" s="11"/>
+    </row>
+    <row r="54" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="23">
+        <v>42</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="48">
+        <v>861881051091438</v>
+      </c>
+      <c r="D54" s="50"/>
+      <c r="E54" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H54" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I54" s="44"/>
+      <c r="J54" s="11"/>
+    </row>
+    <row r="55" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="23">
+        <v>43</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="48">
+        <v>862205051176115</v>
+      </c>
+      <c r="D55" s="50"/>
+      <c r="E55" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H55" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I55" s="44"/>
+      <c r="J55" s="11"/>
+    </row>
+    <row r="56" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="23">
+        <v>44</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="48">
+        <v>862205051180513</v>
+      </c>
+      <c r="D56" s="50"/>
+      <c r="E56" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H56" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I56" s="83"/>
+      <c r="J56" s="11"/>
+    </row>
+    <row r="57" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="23">
+        <v>45</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="48">
+        <v>862205051175786</v>
+      </c>
+      <c r="D57" s="50"/>
+      <c r="E57" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H57" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I57" s="83"/>
+      <c r="J57" s="11"/>
+    </row>
+    <row r="58" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="23">
+        <v>46</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="48">
+        <v>862205051238782</v>
+      </c>
+      <c r="D58" s="50"/>
+      <c r="E58" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H58" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I58" s="44"/>
+      <c r="J58" s="11"/>
+    </row>
+    <row r="59" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="23">
+        <v>47</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="48">
+        <v>862205051162958</v>
+      </c>
+      <c r="D59" s="50"/>
+      <c r="E59" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H59" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I59" s="44"/>
+      <c r="J59" s="11"/>
+    </row>
+    <row r="60" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="23">
+        <v>48</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="48">
+        <v>861881051083773</v>
+      </c>
+      <c r="D60" s="50"/>
+      <c r="E60" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H60" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="I60" s="44"/>
+      <c r="J60" s="11"/>
+    </row>
+    <row r="61" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="23">
+        <v>49</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="48">
+        <v>862205051195008</v>
+      </c>
+      <c r="D61" s="50"/>
+      <c r="E61" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H61" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="I61" s="44"/>
+      <c r="J61" s="11"/>
+    </row>
+    <row r="62" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="23">
+        <v>50</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="48">
+        <v>862205051183103</v>
+      </c>
+      <c r="D62" s="50"/>
+      <c r="E62" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H62" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I62" s="44"/>
+      <c r="J62" s="11"/>
+    </row>
+    <row r="63" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="23">
+        <v>51</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="46"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="H63" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="I63" s="44"/>
+      <c r="J63" s="11"/>
+    </row>
+    <row r="64" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="26"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="11"/>
+    </row>
+    <row r="65" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="33"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="35"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
+    </row>
+    <row r="66" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="52" t="s">
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-    </row>
-    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="15"/>
-    </row>
-    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="15"/>
-    </row>
-    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="15"/>
-    </row>
-    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="16"/>
-    </row>
-    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
+      <c r="H66" s="55"/>
+      <c r="I66" s="55"/>
+    </row>
+    <row r="67" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="15"/>
+    </row>
+    <row r="68" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="15"/>
+    </row>
+    <row r="69" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="15"/>
+    </row>
+    <row r="70" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="13"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="16"/>
+    </row>
+    <row r="71" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-    </row>
-    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-    </row>
-    <row r="67" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="H71" s="54"/>
+      <c r="I71" s="54"/>
+    </row>
+    <row r="72" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B74" s="52"/>
+      <c r="C74" s="52"/>
+    </row>
+    <row r="113" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="F2:I2"/>
@@ -1694,15 +2799,15 @@
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="B7:I7"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G71:I71"/>
   </mergeCells>
   <pageMargins left="0.6" right="0.6" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="23" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>